--- a/static/sample_excel.xlsx
+++ b/static/sample_excel.xlsx
@@ -36,6 +36,7 @@
             <sz val="10"/>
             <rFont val="Playfair"/>
             <family val="0"/>
+            <charset val="1"/>
           </rPr>
           <t xml:space="preserve">(format: DD.MM.YYYY HH:MM:SS)</t>
         </r>
@@ -150,6 +151,7 @@
       <sz val="10"/>
       <name val="Playfair"/>
       <family val="0"/>
+      <charset val="1"/>
     </font>
   </fonts>
   <fills count="3">
@@ -334,7 +336,7 @@
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
       <pane xSplit="0" ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
-      <selection pane="bottomLeft" activeCell="A6" activeCellId="0" sqref="A6"/>
+      <selection pane="bottomLeft" activeCell="A2" activeCellId="0" sqref="A2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.40625" defaultRowHeight="15" zeroHeight="true" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -343,7 +345,7 @@
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="2" width="25.67"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="1" width="51.18"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="1" width="81.17"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="1" width="43.89"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="1" width="43.9"/>
     <col collapsed="false" customWidth="false" hidden="true" outlineLevel="0" max="1024" min="6" style="3" width="14.4"/>
   </cols>
   <sheetData>
